--- a/02_MasterWifoMannheim/99_Backup/Course162.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course162.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD300D369A3B923115951C8F56353FE93" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5AE72AA-F38F-4CBE-A603-9683BAC5380F}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>OPM 582 Case Studies in Service Operations Management (kein Angebot im HWS 2020)</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Services are the largest and fastest growing segment of our economy. However, services pose particular challenges to managers due to their intangible and experiential nature, time-perishability, and high levels of customer involvement. requires tight integration between operations, marketing, strategy, technology, and organizational issues from an integrated viewpoint with a focus on the customer in order to gain competitive advantage. This course reviews managerial concepts and selected analytical tools for effectively and efficiently managing service operations in face of these challenges. explore the theory by applying it to various cases studies of firms covering a broad range of services, e-services, as well as service functions of the manufacturing sector. Case topics will be allocated at the beginning of the course based on student preferences. Students will work in teams of two on the assigned case.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students will intensify their understanding of operations and service operations management to practical case studies. The course should be useful for anyone with an intention of going the importance of man-aging service processes is increasing every day; or with a desire to set up their own service business.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationMax. 20 participants</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:Portal” (more information about the registration process is available here)</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 2 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Assignment(s)/work on case studies: final team report (60%), final presentation (30%), individual class participation (10%)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Cornelia Schön</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester (kein Angebot im HWS 2020)</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>Operations Management (OPM), Mathematical and Statistical Foundations (MSF)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OPM 582 Case Studies in Service Operations Management </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Services are the largest and fastest growing segment of our economy. However, services pose particular challenges to managers due to their intangible and experiential nature, time-perishability, and high levels of customer involvement. requires tight integration between operations, marketing, strategy, technology, and organizational issues from an integrated viewpoint with a focus on the customer in order to gain competitive advantage. This course reviews managerial concepts and selected analytical tools for effectively and efficiently managing service operations in face of these challenges. explore the theory by applying it to various cases studies of firms covering a broad range of services, e-services, as well as service functions of the manufacturing sector. Case topics will be allocated at the beginning of the course based on student preferences. Students will work in teams of two on the assigned case.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students will intensify their understanding of operations and service operations management to practical case studies. The course should be useful for anyone with an intention of going the importance of man-aging service processes is increasing every day; or with a desire to set up their own service business.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Operations Management (OPM), Mathematical and Statistical Foundations (MSF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationMax. 20 participants</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:Portal” (more information about the registration process is available here)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 2 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Assignment(s)/work on case studies: final team report (60%), final presentation (30%), individual class participation (10%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Cornelia Schön</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
